--- a/biology/Botanique/Gibberella_zeae/Gibberella_zeae.xlsx
+++ b/biology/Botanique/Gibberella_zeae/Gibberella_zeae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gibberella zeae est une espèce de champignons ascomycètes de la famille des Nectriaceae. Cette espèce est également connue sous le nom de son anamorphe, Fusarium graminearum.
 Ce champignon est l'un des agents pathogènes responsables de fusarioses chez les céréales, notamment la fusariose du blé et la fusariose du maïs. Ces maladies, outre les pertes de rendement, provoquent des contaminations des grains récoltés par des mycotoxines (fusariotoxines) dangereuses pour la santé humaine et animale
@@ -512,9 +524,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (7 octobre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (7 octobre 2014) :
 non-classé Fusarium graminearum CS3005
 non-classé Fusarium graminearum GZ363
 non-classé Fusarium graminearum PH-1</t>
